--- a/src/config/Products.xlsx
+++ b/src/config/Products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>กระเบื้อง</t>
   </si>

--- a/src/config/Products.xlsx
+++ b/src/config/Products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>กระเบื้อง</t>
   </si>

--- a/src/config/Products.xlsx
+++ b/src/config/Products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>กระเบื้อง</t>
   </si>

--- a/src/config/Products.xlsx
+++ b/src/config/Products.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patthawee/Desktop/Tax-Receipt/src/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2366186E-597A-EB4C-9E72-A4679D04DB3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A2E88-BB50-4147-B135-FA66D472B896}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="20500" windowHeight="7580" xr2:uid="{90D005CE-3C5E-4712-8C40-578B5B5905D3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
-  <si>
-    <t>กระเบื้อง</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>พรม</t>
   </si>
@@ -45,13 +42,27 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>ทดอีก</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>again1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,17 +409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24152235-BDA9-4B17-B0C7-7F693070C3C6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>120</v>
@@ -416,7 +427,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -424,7 +435,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -432,10 +443,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>300021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>201030</v>
       </c>
     </row>
   </sheetData>
